--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\HAZIRAN 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3892D9CF-C7B7-4E68-8A8D-D3E337A46EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5E6AF-6828-422A-8056-F006C919D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="30" windowWidth="28755" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>№</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>PATENT</t>
+  </si>
+  <si>
+    <t>AVANS3</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -687,6 +690,66 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -715,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -836,18 +899,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,6 +910,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -1153,11 +1219,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1169,30 +1235,31 @@
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="48"/>
-    </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="1:14" ht="45.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1221,16 +1288,19 @@
         <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.899999999999999" customHeight="1">
+    <row r="3" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1249,16 +1319,17 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="44">
-        <f t="shared" ref="K3:K34" si="0">F3-G3-H3-I3-J3</f>
+      <c r="K3" s="39"/>
+      <c r="L3" s="46">
+        <f>F3-G3-H3-I3-K3-J3</f>
         <v>200000</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" t="s">
+      <c r="M3" s="11"/>
+      <c r="N3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.899999999999999" customHeight="1">
+    <row r="4" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1275,7 +1346,7 @@
         <v>280</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F35" si="1">D4*E4</f>
+        <f t="shared" ref="F4:F35" si="0">D4*E4</f>
         <v>100520</v>
       </c>
       <c r="G4" s="2">
@@ -1286,13 +1357,14 @@
       </c>
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
-      <c r="K4" s="42">
-        <f t="shared" si="0"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="47">
+        <f t="shared" ref="L4:L67" si="1">F4-G4-H4-I4-K4-J4</f>
         <v>52520</v>
       </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1309,7 +1381,7 @@
         <v>410</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>132840</v>
       </c>
       <c r="G5" s="2">
@@ -1319,14 +1391,17 @@
         <v>30000</v>
       </c>
       <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="42">
-        <f t="shared" si="0"/>
-        <v>77840</v>
-      </c>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="J5" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="47">
+        <f t="shared" si="1"/>
+        <v>67840</v>
+      </c>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -1343,7 +1418,7 @@
         <v>410</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>168100</v>
       </c>
       <c r="G6" s="2">
@@ -1354,13 +1429,14 @@
       </c>
       <c r="I6" s="36"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="42">
-        <f t="shared" si="0"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="47">
+        <f t="shared" si="1"/>
         <v>73100</v>
       </c>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1377,7 +1453,7 @@
         <v>340</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>122400</v>
       </c>
       <c r="G7" s="2">
@@ -1385,16 +1461,17 @@
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="J7" s="36"/>
+      <c r="K7" s="36">
         <v>97400</v>
       </c>
-      <c r="K7" s="42">
-        <f t="shared" si="0"/>
+      <c r="L7" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A8" s="12">
         <v>6</v>
       </c>
@@ -1411,7 +1488,7 @@
         <v>450</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>127350</v>
       </c>
       <c r="G8" s="2">
@@ -1422,13 +1499,14 @@
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="42">
-        <f t="shared" si="0"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="47">
+        <f t="shared" si="1"/>
         <v>47350</v>
       </c>
-      <c r="L8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -1445,7 +1523,7 @@
         <v>410</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>147190</v>
       </c>
       <c r="G9" s="2">
@@ -1456,13 +1534,14 @@
       </c>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="42">
-        <f t="shared" si="0"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="47">
+        <f t="shared" si="1"/>
         <v>62190</v>
       </c>
-      <c r="L9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1479,7 +1558,7 @@
         <v>450</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>144450</v>
       </c>
       <c r="G10" s="2">
@@ -1491,16 +1570,17 @@
       <c r="I10" s="36">
         <v>10000</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="36"/>
+      <c r="K10" s="36">
         <v>24900</v>
       </c>
-      <c r="K10" s="42">
-        <f t="shared" si="0"/>
+      <c r="L10" s="47">
+        <f t="shared" si="1"/>
         <v>42050</v>
       </c>
-      <c r="L10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A11" s="12">
         <v>9</v>
       </c>
@@ -1517,7 +1597,7 @@
         <v>460</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>115460</v>
       </c>
       <c r="G11" s="2">
@@ -1528,13 +1608,14 @@
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="42">
-        <f t="shared" si="0"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="47">
+        <f t="shared" si="1"/>
         <v>70460</v>
       </c>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A12" s="12">
         <v>10</v>
       </c>
@@ -1551,7 +1632,7 @@
         <v>340</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>122400</v>
       </c>
       <c r="G12" s="2">
@@ -1562,13 +1643,14 @@
       </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
-      <c r="K12" s="42">
-        <f t="shared" si="0"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="47">
+        <f t="shared" si="1"/>
         <v>47400</v>
       </c>
-      <c r="L12" s="15"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1585,7 +1667,7 @@
         <v>430</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>123840</v>
       </c>
       <c r="G13" s="2">
@@ -1595,14 +1677,17 @@
         <v>30000</v>
       </c>
       <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="42">
-        <f t="shared" si="0"/>
-        <v>68840</v>
-      </c>
-      <c r="L13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="J13" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="47">
+        <f t="shared" si="1"/>
+        <v>58840</v>
+      </c>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A14" s="12">
         <v>12</v>
       </c>
@@ -1619,7 +1704,7 @@
         <v>420</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>125160</v>
       </c>
       <c r="G14" s="2">
@@ -1629,14 +1714,17 @@
         <v>30000</v>
       </c>
       <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="42">
-        <f t="shared" si="0"/>
-        <v>70160</v>
-      </c>
-      <c r="L14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="J14" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="47">
+        <f t="shared" si="1"/>
+        <v>60160</v>
+      </c>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A15" s="12">
         <v>13</v>
       </c>
@@ -1653,7 +1741,7 @@
         <v>500</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>170500</v>
       </c>
       <c r="G15" s="2"/>
@@ -1661,14 +1749,17 @@
         <v>30000</v>
       </c>
       <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="42">
-        <f t="shared" si="0"/>
-        <v>140500</v>
-      </c>
-      <c r="L15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.899999999999999" customHeight="1">
+      <c r="J15" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="36"/>
+      <c r="L15" s="47">
+        <f t="shared" si="1"/>
+        <v>130500</v>
+      </c>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:14" ht="16.899999999999999" customHeight="1">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1685,7 +1776,7 @@
         <v>410</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>137760</v>
       </c>
       <c r="G16" s="2">
@@ -1695,14 +1786,17 @@
         <v>30000</v>
       </c>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="42">
-        <f t="shared" si="0"/>
-        <v>82760</v>
-      </c>
-      <c r="L16" s="15"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J16" s="36">
+        <v>15000</v>
+      </c>
+      <c r="K16" s="36"/>
+      <c r="L16" s="47">
+        <f t="shared" si="1"/>
+        <v>67760</v>
+      </c>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A17" s="12">
         <v>15</v>
       </c>
@@ -1719,7 +1813,7 @@
         <v>450</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>127350</v>
       </c>
       <c r="G17" s="2">
@@ -1729,14 +1823,17 @@
         <v>30000</v>
       </c>
       <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="42">
-        <f t="shared" si="0"/>
-        <v>72350</v>
-      </c>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J17" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="36"/>
+      <c r="L17" s="47">
+        <f t="shared" si="1"/>
+        <v>62350</v>
+      </c>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -1753,7 +1850,7 @@
         <v>450</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133200</v>
       </c>
       <c r="G18" s="2"/>
@@ -1762,13 +1859,14 @@
       </c>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
-      <c r="K18" s="42">
-        <f t="shared" si="0"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="47">
+        <f t="shared" si="1"/>
         <v>68200</v>
       </c>
-      <c r="L18" s="15"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -1785,7 +1883,7 @@
         <v>410</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>146370</v>
       </c>
       <c r="G19" s="2">
@@ -1795,14 +1893,17 @@
         <v>30000</v>
       </c>
       <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="42">
-        <f t="shared" si="0"/>
-        <v>91370</v>
-      </c>
-      <c r="L19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J19" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="36"/>
+      <c r="L19" s="47">
+        <f t="shared" si="1"/>
+        <v>81370</v>
+      </c>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -1819,7 +1920,7 @@
         <v>390</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>112320</v>
       </c>
       <c r="G20" s="2">
@@ -1829,14 +1930,17 @@
         <v>30000</v>
       </c>
       <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="42">
-        <f t="shared" si="0"/>
-        <v>57320</v>
-      </c>
-      <c r="L20" s="15"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="J20" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="47">
+        <f t="shared" si="1"/>
+        <v>47320</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -1853,7 +1957,7 @@
         <v>450</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133650</v>
       </c>
       <c r="G21" s="2">
@@ -1863,14 +1967,17 @@
         <v>30000</v>
       </c>
       <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="42">
-        <f t="shared" si="0"/>
-        <v>91150</v>
-      </c>
-      <c r="L21" s="15"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J21" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="36"/>
+      <c r="L21" s="47">
+        <f t="shared" si="1"/>
+        <v>81150</v>
+      </c>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -1887,7 +1994,7 @@
         <v>440</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>158400</v>
       </c>
       <c r="G22" s="2">
@@ -1900,13 +2007,14 @@
         <v>10000</v>
       </c>
       <c r="J22" s="36"/>
-      <c r="K22" s="42">
-        <f t="shared" si="0"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="47">
+        <f t="shared" si="1"/>
         <v>68400</v>
       </c>
-      <c r="L22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A23" s="12">
         <v>21</v>
       </c>
@@ -1923,7 +2031,7 @@
         <v>410</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>151700</v>
       </c>
       <c r="G23" s="2">
@@ -1934,13 +2042,14 @@
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
-      <c r="K23" s="42">
-        <f t="shared" si="0"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="47">
+        <f t="shared" si="1"/>
         <v>66700</v>
       </c>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A24" s="12">
         <v>22</v>
       </c>
@@ -1957,7 +2066,7 @@
         <v>500</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>165000</v>
       </c>
       <c r="G24" s="2">
@@ -1967,14 +2076,17 @@
         <v>30000</v>
       </c>
       <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="42">
-        <f t="shared" si="0"/>
-        <v>110000</v>
-      </c>
-      <c r="L24" s="15"/>
-    </row>
-    <row r="25" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J24" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="47">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -1991,7 +2103,7 @@
         <v>350</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
       <c r="G25" s="2">
@@ -2002,13 +2114,14 @@
       </c>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
-      <c r="K25" s="42">
-        <f t="shared" si="0"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="47">
+        <f t="shared" si="1"/>
         <v>51000</v>
       </c>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A26" s="12">
         <v>24</v>
       </c>
@@ -2025,7 +2138,7 @@
         <v>420</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>129780</v>
       </c>
       <c r="G26" s="2">
@@ -2033,16 +2146,17 @@
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="36"/>
-      <c r="J26" s="36">
+      <c r="J26" s="36"/>
+      <c r="K26" s="36">
         <v>104780</v>
       </c>
-      <c r="K26" s="42">
-        <f t="shared" si="0"/>
+      <c r="L26" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="15"/>
-    </row>
-    <row r="27" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A27" s="12">
         <v>25</v>
       </c>
@@ -2059,7 +2173,7 @@
         <v>450</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>117450</v>
       </c>
       <c r="G27" s="2">
@@ -2067,16 +2181,17 @@
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
-      <c r="J27" s="36">
+      <c r="J27" s="36"/>
+      <c r="K27" s="36">
         <v>92450</v>
       </c>
-      <c r="K27" s="42">
-        <f t="shared" si="0"/>
+      <c r="L27" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="15"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A28" s="13">
         <v>26</v>
       </c>
@@ -2093,7 +2208,7 @@
         <v>420</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119280</v>
       </c>
       <c r="G28" s="2">
@@ -2104,13 +2219,14 @@
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
-      <c r="K28" s="42">
-        <f t="shared" si="0"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="47">
+        <f t="shared" si="1"/>
         <v>44280</v>
       </c>
-      <c r="L28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A29" s="12">
         <v>27</v>
       </c>
@@ -2127,7 +2243,7 @@
         <v>350</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120750</v>
       </c>
       <c r="G29" s="2">
@@ -2137,14 +2253,17 @@
         <v>30000</v>
       </c>
       <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="42">
-        <f t="shared" si="0"/>
-        <v>65750</v>
-      </c>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J29" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="47">
+        <f t="shared" si="1"/>
+        <v>55750</v>
+      </c>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A30" s="12">
         <v>28</v>
       </c>
@@ -2161,7 +2280,7 @@
         <v>410</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>143090</v>
       </c>
       <c r="G30" s="2">
@@ -2171,14 +2290,17 @@
         <v>30000</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="42">
-        <f t="shared" si="0"/>
-        <v>88090</v>
-      </c>
-      <c r="L30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J30" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="47">
+        <f t="shared" si="1"/>
+        <v>78090</v>
+      </c>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A31" s="13">
         <v>29</v>
       </c>
@@ -2195,7 +2317,7 @@
         <v>400</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>119200</v>
       </c>
       <c r="G31" s="2">
@@ -2208,13 +2330,14 @@
         <v>10000</v>
       </c>
       <c r="J31" s="36"/>
-      <c r="K31" s="42">
-        <f t="shared" si="0"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="47">
+        <f t="shared" si="1"/>
         <v>34200</v>
       </c>
-      <c r="L31" s="15"/>
-    </row>
-    <row r="32" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A32" s="12">
         <v>30</v>
       </c>
@@ -2231,7 +2354,7 @@
         <v>400</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34400</v>
       </c>
       <c r="G32" s="2">
@@ -2240,13 +2363,14 @@
       <c r="H32" s="36"/>
       <c r="I32" s="36"/>
       <c r="J32" s="36"/>
-      <c r="K32" s="42">
-        <f t="shared" si="0"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="47">
+        <f t="shared" si="1"/>
         <v>9400</v>
       </c>
-      <c r="L32" s="15"/>
-    </row>
-    <row r="33" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A33" s="12">
         <v>31</v>
       </c>
@@ -2263,7 +2387,7 @@
         <v>420</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>126000</v>
       </c>
       <c r="G33" s="2">
@@ -2273,14 +2397,17 @@
         <v>30000</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="42">
-        <f t="shared" si="0"/>
-        <v>71000</v>
-      </c>
-      <c r="L33" s="15"/>
-    </row>
-    <row r="34" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J33" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="36"/>
+      <c r="L33" s="47">
+        <f t="shared" si="1"/>
+        <v>61000</v>
+      </c>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A34" s="13">
         <v>32</v>
       </c>
@@ -2297,7 +2424,7 @@
         <v>420</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>143220</v>
       </c>
       <c r="G34" s="2">
@@ -2307,14 +2434,17 @@
         <v>30000</v>
       </c>
       <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="42">
-        <f t="shared" si="0"/>
-        <v>88220</v>
-      </c>
-      <c r="L34" s="15"/>
-    </row>
-    <row r="35" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J34" s="36">
+        <v>15000</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="47">
+        <f t="shared" si="1"/>
+        <v>73220</v>
+      </c>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A35" s="12">
         <v>33</v>
       </c>
@@ -2331,7 +2461,7 @@
         <v>430</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133300</v>
       </c>
       <c r="G35" s="2">
@@ -2341,14 +2471,17 @@
         <v>30000</v>
       </c>
       <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="42">
-        <f t="shared" ref="K35:K66" si="2">F35-G35-H35-I35-J35</f>
-        <v>78300</v>
-      </c>
-      <c r="L35" s="15"/>
-    </row>
-    <row r="36" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J35" s="36">
+        <v>15000</v>
+      </c>
+      <c r="K35" s="36"/>
+      <c r="L35" s="47">
+        <f t="shared" si="1"/>
+        <v>63300</v>
+      </c>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A36" s="12">
         <v>34</v>
       </c>
@@ -2365,22 +2498,23 @@
         <v>460</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ref="F36:F67" si="3">D36*E36</f>
+        <f t="shared" ref="F36:F67" si="2">D36*E36</f>
         <v>47380</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
-      <c r="J36" s="36">
+      <c r="J36" s="36"/>
+      <c r="K36" s="36">
         <v>47380</v>
       </c>
-      <c r="K36" s="42">
-        <f t="shared" si="2"/>
+      <c r="L36" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="15"/>
-    </row>
-    <row r="37" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A37" s="13">
         <v>35</v>
       </c>
@@ -2397,7 +2531,7 @@
         <v>420</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>131880</v>
       </c>
       <c r="G37" s="2">
@@ -2407,14 +2541,17 @@
         <v>30000</v>
       </c>
       <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="42">
-        <f t="shared" si="2"/>
-        <v>76880</v>
-      </c>
-      <c r="L37" s="15"/>
-    </row>
-    <row r="38" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J37" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K37" s="36"/>
+      <c r="L37" s="47">
+        <f t="shared" si="1"/>
+        <v>66880</v>
+      </c>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A38" s="12">
         <v>36</v>
       </c>
@@ -2431,7 +2568,7 @@
         <v>400</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>139200</v>
       </c>
       <c r="G38" s="2">
@@ -2442,13 +2579,14 @@
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
-      <c r="K38" s="42">
-        <f t="shared" si="2"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="47">
+        <f t="shared" si="1"/>
         <v>59200</v>
       </c>
-      <c r="L38" s="15"/>
-    </row>
-    <row r="39" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A39" s="12">
         <v>37</v>
       </c>
@@ -2465,7 +2603,7 @@
         <v>390</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>118560</v>
       </c>
       <c r="G39" s="2">
@@ -2475,14 +2613,17 @@
         <v>30000</v>
       </c>
       <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="42">
-        <f t="shared" si="2"/>
-        <v>63560</v>
-      </c>
-      <c r="L39" s="15"/>
-    </row>
-    <row r="40" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J39" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K39" s="36"/>
+      <c r="L39" s="47">
+        <f t="shared" si="1"/>
+        <v>53560</v>
+      </c>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A40" s="13">
         <v>38</v>
       </c>
@@ -2499,7 +2640,7 @@
         <v>410</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>139400</v>
       </c>
       <c r="G40" s="2">
@@ -2509,14 +2650,17 @@
         <v>30000</v>
       </c>
       <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="42">
-        <f t="shared" si="2"/>
-        <v>84400</v>
-      </c>
-      <c r="L40" s="15"/>
-    </row>
-    <row r="41" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J40" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="47">
+        <f t="shared" si="1"/>
+        <v>74400</v>
+      </c>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A41" s="12">
         <v>39</v>
       </c>
@@ -2533,7 +2677,7 @@
         <v>390</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120900</v>
       </c>
       <c r="G41" s="2">
@@ -2543,14 +2687,17 @@
         <v>30000</v>
       </c>
       <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="42">
-        <f t="shared" si="2"/>
-        <v>65900</v>
-      </c>
-      <c r="L41" s="15"/>
-    </row>
-    <row r="42" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J41" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K41" s="36"/>
+      <c r="L41" s="47">
+        <f t="shared" si="1"/>
+        <v>55900</v>
+      </c>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A42" s="12">
         <v>40</v>
       </c>
@@ -2567,7 +2714,7 @@
         <v>370</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>115810</v>
       </c>
       <c r="G42" s="2">
@@ -2577,14 +2724,17 @@
         <v>30000</v>
       </c>
       <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="42">
-        <f t="shared" si="2"/>
-        <v>60810</v>
-      </c>
-      <c r="L42" s="15"/>
-    </row>
-    <row r="43" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J42" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="47">
+        <f t="shared" si="1"/>
+        <v>50810</v>
+      </c>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A43" s="13">
         <v>41</v>
       </c>
@@ -2601,7 +2751,7 @@
         <v>380</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>148200</v>
       </c>
       <c r="G43" s="2">
@@ -2614,13 +2764,14 @@
         <v>10000</v>
       </c>
       <c r="J43" s="36"/>
-      <c r="K43" s="42">
-        <f t="shared" si="2"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="47">
+        <f t="shared" si="1"/>
         <v>53200</v>
       </c>
-      <c r="L43" s="15"/>
-    </row>
-    <row r="44" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A44" s="12">
         <v>42</v>
       </c>
@@ -2637,7 +2788,7 @@
         <v>380</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144400</v>
       </c>
       <c r="G44" s="2">
@@ -2648,13 +2799,14 @@
       </c>
       <c r="I44" s="36"/>
       <c r="J44" s="36"/>
-      <c r="K44" s="42">
-        <f t="shared" si="2"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="47">
+        <f t="shared" si="1"/>
         <v>59400</v>
       </c>
-      <c r="L44" s="15"/>
-    </row>
-    <row r="45" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A45" s="12">
         <v>43</v>
       </c>
@@ -2671,7 +2823,7 @@
         <v>390</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>134940</v>
       </c>
       <c r="G45" s="2">
@@ -2682,13 +2834,14 @@
       </c>
       <c r="I45" s="36"/>
       <c r="J45" s="36"/>
-      <c r="K45" s="42">
-        <f t="shared" si="2"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="47">
+        <f t="shared" si="1"/>
         <v>79940</v>
       </c>
-      <c r="L45" s="15"/>
-    </row>
-    <row r="46" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A46" s="13">
         <v>44</v>
       </c>
@@ -2705,7 +2858,7 @@
         <v>390</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>129870</v>
       </c>
       <c r="G46" s="2">
@@ -2715,14 +2868,17 @@
         <v>30000</v>
       </c>
       <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="42">
-        <f t="shared" si="2"/>
-        <v>74870</v>
-      </c>
-      <c r="L46" s="15"/>
-    </row>
-    <row r="47" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J46" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="47">
+        <f t="shared" si="1"/>
+        <v>64870</v>
+      </c>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A47" s="12">
         <v>45</v>
       </c>
@@ -2739,7 +2895,7 @@
         <v>380</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140220</v>
       </c>
       <c r="G47" s="2">
@@ -2750,13 +2906,14 @@
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="36"/>
-      <c r="K47" s="42">
-        <f t="shared" si="2"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="47">
+        <f t="shared" si="1"/>
         <v>60220</v>
       </c>
-      <c r="L47" s="15"/>
-    </row>
-    <row r="48" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M47" s="15"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -2773,7 +2930,7 @@
         <v>380</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>121980</v>
       </c>
       <c r="G48" s="2">
@@ -2786,13 +2943,14 @@
         <v>10000</v>
       </c>
       <c r="J48" s="36"/>
-      <c r="K48" s="42">
-        <f t="shared" si="2"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="47">
+        <f t="shared" si="1"/>
         <v>36980</v>
       </c>
-      <c r="L48" s="15"/>
-    </row>
-    <row r="49" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M48" s="15"/>
+    </row>
+    <row r="49" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A49" s="13">
         <v>47</v>
       </c>
@@ -2809,7 +2967,7 @@
         <v>400</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>136800</v>
       </c>
       <c r="G49" s="2">
@@ -2822,13 +2980,14 @@
         <v>10000</v>
       </c>
       <c r="J49" s="36"/>
-      <c r="K49" s="42">
-        <f t="shared" si="2"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="47">
+        <f t="shared" si="1"/>
         <v>46800</v>
       </c>
-      <c r="L49" s="15"/>
-    </row>
-    <row r="50" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M49" s="15"/>
+    </row>
+    <row r="50" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A50" s="12">
         <v>48</v>
       </c>
@@ -2845,7 +3004,7 @@
         <v>410</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130380</v>
       </c>
       <c r="G50" s="2">
@@ -2858,13 +3017,14 @@
         <v>10000</v>
       </c>
       <c r="J50" s="36"/>
-      <c r="K50" s="42">
-        <f t="shared" si="2"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="47">
+        <f t="shared" si="1"/>
         <v>45380</v>
       </c>
-      <c r="L50" s="15"/>
-    </row>
-    <row r="51" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M50" s="15"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A51" s="12">
         <v>49</v>
       </c>
@@ -2881,7 +3041,7 @@
         <v>400</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>142800</v>
       </c>
       <c r="G51" s="2">
@@ -2892,13 +3052,14 @@
       </c>
       <c r="I51" s="36"/>
       <c r="J51" s="36"/>
-      <c r="K51" s="42">
-        <f t="shared" si="2"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="47">
+        <f t="shared" si="1"/>
         <v>57800</v>
       </c>
-      <c r="L51" s="15"/>
-    </row>
-    <row r="52" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M51" s="15"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A52" s="13">
         <v>50</v>
       </c>
@@ -2915,7 +3076,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>108800</v>
       </c>
       <c r="G52" s="2">
@@ -2925,14 +3086,17 @@
         <v>30000</v>
       </c>
       <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="42">
-        <f t="shared" si="2"/>
-        <v>53800</v>
-      </c>
-      <c r="L52" s="15"/>
-    </row>
-    <row r="53" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J52" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K52" s="36"/>
+      <c r="L52" s="47">
+        <f t="shared" si="1"/>
+        <v>43800</v>
+      </c>
+      <c r="M52" s="15"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A53" s="12">
         <v>51</v>
       </c>
@@ -2949,7 +3113,7 @@
         <v>390</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>125580</v>
       </c>
       <c r="G53" s="2">
@@ -2959,14 +3123,17 @@
         <v>30000</v>
       </c>
       <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="42">
-        <f t="shared" si="2"/>
-        <v>70580</v>
-      </c>
-      <c r="L53" s="15"/>
-    </row>
-    <row r="54" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J53" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="47">
+        <f t="shared" si="1"/>
+        <v>60580</v>
+      </c>
+      <c r="M53" s="15"/>
+    </row>
+    <row r="54" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A54" s="12">
         <v>52</v>
       </c>
@@ -2983,7 +3150,7 @@
         <v>360</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>139320</v>
       </c>
       <c r="G54" s="2">
@@ -2994,13 +3161,14 @@
       </c>
       <c r="I54" s="36"/>
       <c r="J54" s="36"/>
-      <c r="K54" s="42">
-        <f t="shared" si="2"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="47">
+        <f t="shared" si="1"/>
         <v>54320</v>
       </c>
-      <c r="L54" s="15"/>
-    </row>
-    <row r="55" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M54" s="15"/>
+    </row>
+    <row r="55" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A55" s="13">
         <v>53</v>
       </c>
@@ -3017,7 +3185,7 @@
         <v>400</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>122800</v>
       </c>
       <c r="G55" s="2">
@@ -3029,14 +3197,17 @@
       <c r="I55" s="36">
         <v>3000</v>
       </c>
-      <c r="J55" s="36"/>
-      <c r="K55" s="42">
-        <f t="shared" si="2"/>
-        <v>64800</v>
-      </c>
-      <c r="L55" s="15"/>
-    </row>
-    <row r="56" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J55" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K55" s="36"/>
+      <c r="L55" s="47">
+        <f t="shared" si="1"/>
+        <v>54800</v>
+      </c>
+      <c r="M55" s="15"/>
+    </row>
+    <row r="56" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A56" s="12">
         <v>54</v>
       </c>
@@ -3053,7 +3224,7 @@
         <v>430</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>121690</v>
       </c>
       <c r="G56" s="2">
@@ -3065,16 +3236,17 @@
       <c r="I56" s="36">
         <v>10000</v>
       </c>
-      <c r="J56" s="36">
+      <c r="J56" s="36"/>
+      <c r="K56" s="36">
         <v>24900</v>
       </c>
-      <c r="K56" s="42">
-        <f t="shared" si="2"/>
+      <c r="L56" s="47">
+        <f t="shared" si="1"/>
         <v>11790</v>
       </c>
-      <c r="L56" s="15"/>
-    </row>
-    <row r="57" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M56" s="15"/>
+    </row>
+    <row r="57" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A57" s="12">
         <v>55</v>
       </c>
@@ -3091,7 +3263,7 @@
         <v>380</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>101840</v>
       </c>
       <c r="G57" s="2">
@@ -3104,15 +3276,18 @@
         <v>6000</v>
       </c>
       <c r="J57" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K57" s="36">
         <v>24900</v>
       </c>
-      <c r="K57" s="42">
-        <f t="shared" si="2"/>
-        <v>15940</v>
-      </c>
-      <c r="L57" s="15"/>
-    </row>
-    <row r="58" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="L57" s="47">
+        <f t="shared" si="1"/>
+        <v>5940</v>
+      </c>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A58" s="13">
         <v>56</v>
       </c>
@@ -3129,7 +3304,7 @@
         <v>410</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>123820</v>
       </c>
       <c r="G58" s="2">
@@ -3142,13 +3317,14 @@
         <v>10000</v>
       </c>
       <c r="J58" s="36"/>
-      <c r="K58" s="42">
-        <f t="shared" si="2"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="47">
+        <f t="shared" si="1"/>
         <v>38820</v>
       </c>
-      <c r="L58" s="15"/>
-    </row>
-    <row r="59" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M58" s="15"/>
+    </row>
+    <row r="59" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A59" s="12">
         <v>57</v>
       </c>
@@ -3165,7 +3341,7 @@
         <v>380</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>127680</v>
       </c>
       <c r="G59" s="2">
@@ -3176,13 +3352,14 @@
       </c>
       <c r="I59" s="36"/>
       <c r="J59" s="36"/>
-      <c r="K59" s="42">
-        <f t="shared" si="2"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="47">
+        <f t="shared" si="1"/>
         <v>52680</v>
       </c>
-      <c r="L59" s="15"/>
-    </row>
-    <row r="60" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M59" s="15"/>
+    </row>
+    <row r="60" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A60" s="12">
         <v>58</v>
       </c>
@@ -3199,7 +3376,7 @@
         <v>350</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140350</v>
       </c>
       <c r="G60" s="2">
@@ -3211,16 +3388,17 @@
       <c r="I60" s="36">
         <v>5000</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="36"/>
+      <c r="K60" s="36">
         <v>24900</v>
       </c>
-      <c r="K60" s="42">
-        <f t="shared" si="2"/>
+      <c r="L60" s="47">
+        <f t="shared" si="1"/>
         <v>30450</v>
       </c>
-      <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M60" s="15"/>
+    </row>
+    <row r="61" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A61" s="13">
         <v>59</v>
       </c>
@@ -3237,7 +3415,7 @@
         <v>380</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>126160</v>
       </c>
       <c r="G61" s="2">
@@ -3247,14 +3425,17 @@
         <v>30000</v>
       </c>
       <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="42">
-        <f t="shared" si="2"/>
-        <v>71160</v>
-      </c>
-      <c r="L61" s="15"/>
-    </row>
-    <row r="62" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="J61" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K61" s="36"/>
+      <c r="L61" s="47">
+        <f t="shared" si="1"/>
+        <v>61160</v>
+      </c>
+      <c r="M61" s="15"/>
+    </row>
+    <row r="62" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A62" s="12">
         <v>60</v>
       </c>
@@ -3271,7 +3452,7 @@
         <v>370</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>143930</v>
       </c>
       <c r="G62" s="2">
@@ -3279,16 +3460,17 @@
       </c>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="36">
+      <c r="J62" s="36"/>
+      <c r="K62" s="36">
         <v>118930</v>
       </c>
-      <c r="K62" s="42">
-        <f t="shared" si="2"/>
+      <c r="L62" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L62" s="15"/>
-    </row>
-    <row r="63" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M62" s="15"/>
+    </row>
+    <row r="63" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A63" s="12">
         <v>61</v>
       </c>
@@ -3305,7 +3487,7 @@
         <v>330</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>105930</v>
       </c>
       <c r="G63" s="2">
@@ -3316,13 +3498,14 @@
       </c>
       <c r="I63" s="36"/>
       <c r="J63" s="36"/>
-      <c r="K63" s="42">
-        <f t="shared" si="2"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="47">
+        <f t="shared" si="1"/>
         <v>30930</v>
       </c>
-      <c r="L63" s="15"/>
-    </row>
-    <row r="64" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M63" s="15"/>
+    </row>
+    <row r="64" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A64" s="13">
         <v>62</v>
       </c>
@@ -3339,7 +3522,7 @@
         <v>350</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>141750</v>
       </c>
       <c r="G64" s="2">
@@ -3347,16 +3530,17 @@
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="36">
+      <c r="J64" s="36"/>
+      <c r="K64" s="36">
         <v>116750</v>
       </c>
-      <c r="K64" s="42">
-        <f t="shared" si="2"/>
+      <c r="L64" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L64" s="15"/>
-    </row>
-    <row r="65" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M64" s="15"/>
+    </row>
+    <row r="65" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A65" s="12">
         <v>63</v>
       </c>
@@ -3373,7 +3557,7 @@
         <v>370</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>113590</v>
       </c>
       <c r="G65" s="2">
@@ -3381,16 +3565,17 @@
       </c>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="36">
+      <c r="J65" s="36"/>
+      <c r="K65" s="36">
         <v>88590</v>
       </c>
-      <c r="K65" s="42">
-        <f t="shared" si="2"/>
+      <c r="L65" s="47">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L65" s="15"/>
-    </row>
-    <row r="66" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M65" s="15"/>
+    </row>
+    <row r="66" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A66" s="12">
         <v>64</v>
       </c>
@@ -3407,7 +3592,7 @@
         <v>370</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>144300</v>
       </c>
       <c r="G66" s="2">
@@ -3420,13 +3605,14 @@
         <v>10000</v>
       </c>
       <c r="J66" s="36"/>
-      <c r="K66" s="42">
-        <f t="shared" si="2"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="47">
+        <f t="shared" si="1"/>
         <v>49300</v>
       </c>
-      <c r="L66" s="15"/>
-    </row>
-    <row r="67" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M66" s="15"/>
+    </row>
+    <row r="67" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A67" s="13">
         <v>65</v>
       </c>
@@ -3443,7 +3629,7 @@
         <v>360</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>132840</v>
       </c>
       <c r="G67" s="2">
@@ -3454,13 +3640,14 @@
       </c>
       <c r="I67" s="36"/>
       <c r="J67" s="36"/>
-      <c r="K67" s="42">
-        <f t="shared" ref="K67:K98" si="4">F67-G67-H67-I67-J67</f>
+      <c r="K67" s="36"/>
+      <c r="L67" s="47">
+        <f t="shared" si="1"/>
         <v>52840</v>
       </c>
-      <c r="L67" s="15"/>
-    </row>
-    <row r="68" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M67" s="15"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A68" s="12">
         <v>66</v>
       </c>
@@ -3477,7 +3664,7 @@
         <v>350</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F99" si="5">D68*E68</f>
+        <f t="shared" ref="F68:F72" si="3">D68*E68</f>
         <v>110600</v>
       </c>
       <c r="G68" s="2">
@@ -3488,13 +3675,14 @@
       </c>
       <c r="I68" s="36"/>
       <c r="J68" s="36"/>
-      <c r="K68" s="42">
-        <f t="shared" si="4"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="47">
+        <f t="shared" ref="L68:L72" si="4">F68-G68-H68-I68-K68-J68</f>
         <v>35600</v>
       </c>
-      <c r="L68" s="15"/>
-    </row>
-    <row r="69" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M68" s="15"/>
+    </row>
+    <row r="69" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A69" s="12">
         <v>67</v>
       </c>
@@ -3511,7 +3699,7 @@
         <v>380</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>123880</v>
       </c>
       <c r="G69" s="2">
@@ -3521,14 +3709,17 @@
         <v>30000</v>
       </c>
       <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="42">
+      <c r="J69" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K69" s="36"/>
+      <c r="L69" s="47">
         <f t="shared" si="4"/>
-        <v>68880</v>
-      </c>
-      <c r="L69" s="15"/>
-    </row>
-    <row r="70" spans="1:12" ht="16.899999999999999" customHeight="1">
+        <v>58880</v>
+      </c>
+      <c r="M69" s="15"/>
+    </row>
+    <row r="70" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A70" s="13">
         <v>68</v>
       </c>
@@ -3545,7 +3736,7 @@
         <v>350</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>108850</v>
       </c>
       <c r="G70" s="2">
@@ -3558,13 +3749,14 @@
         <v>10000</v>
       </c>
       <c r="J70" s="36"/>
-      <c r="K70" s="42">
+      <c r="K70" s="36"/>
+      <c r="L70" s="47">
         <f t="shared" si="4"/>
         <v>23850</v>
       </c>
-      <c r="L70" s="15"/>
-    </row>
-    <row r="71" spans="1:12" ht="16.899999999999999" customHeight="1">
+      <c r="M70" s="15"/>
+    </row>
+    <row r="71" spans="1:13" ht="16.899999999999999" customHeight="1">
       <c r="A71" s="12">
         <v>69</v>
       </c>
@@ -3581,7 +3773,7 @@
         <v>350</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>115850</v>
       </c>
       <c r="G71" s="2">
@@ -3591,15 +3783,18 @@
         <v>30000</v>
       </c>
       <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="42">
+      <c r="J71" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K71" s="36"/>
+      <c r="L71" s="47">
         <f t="shared" si="4"/>
-        <v>60850</v>
-      </c>
-      <c r="L71" s="15"/>
-    </row>
-    <row r="72" spans="1:12" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="A72" s="43">
+        <v>50850</v>
+      </c>
+      <c r="M71" s="15"/>
+    </row>
+    <row r="72" spans="1:13" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="A72" s="42">
         <v>70</v>
       </c>
       <c r="B72" s="17">
@@ -3615,7 +3810,7 @@
         <v>400</v>
       </c>
       <c r="F72" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>125600</v>
       </c>
       <c r="G72" s="3">
@@ -3625,26 +3820,29 @@
         <v>30000</v>
       </c>
       <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="45">
+      <c r="J72" s="41">
+        <v>10000</v>
+      </c>
+      <c r="K72" s="41"/>
+      <c r="L72" s="48">
         <f t="shared" si="4"/>
-        <v>70600</v>
-      </c>
-      <c r="L72" s="17"/>
-    </row>
-    <row r="74" spans="1:12">
+        <v>60600</v>
+      </c>
+      <c r="M72" s="17"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="D74">
         <f>SUM(D3:D73)</f>
         <v>22291</v>
       </c>
-      <c r="K74" s="5">
-        <f>SUM(K3:K73)</f>
-        <v>3973430</v>
+      <c r="L74" s="5">
+        <f>SUM(L3:L73)</f>
+        <v>3668430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
@@ -637,20 +637,24 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -662,27 +666,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -698,31 +702,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,75 +746,71 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,7 +826,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1038,2661 +1042,2663 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
+      <selection pane="bottomLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="36.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="1" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="36.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="n">
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="n">
         <v>200000</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="n">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15" t="n">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="16" t="n">
         <f aca="false">F3-G3-H3-I3-K3-J3</f>
         <v>190000</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="0" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="n">
+      <c r="A4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="22" t="n">
         <v>359</v>
       </c>
-      <c r="E4" s="21" t="n">
+      <c r="E4" s="23" t="n">
         <v>280</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="24" t="n">
         <f aca="false">D4*E4</f>
         <v>100520</v>
       </c>
-      <c r="G4" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H4" s="24" t="n">
+      <c r="G4" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H4" s="26" t="n">
         <v>23000</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25" t="n">
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27" t="n">
         <f aca="false">F4-G4-H4-I4-K4-J4</f>
         <v>52520</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="22" t="n">
         <v>324</v>
       </c>
-      <c r="E5" s="21" t="n">
+      <c r="E5" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="F5" s="24" t="n">
         <f aca="false">D5*E5</f>
         <v>132840</v>
       </c>
-      <c r="G5" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="24" t="n">
+      <c r="G5" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25" t="n">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27" t="n">
         <f aca="false">F5-G5-H5-I5-K5-J5</f>
         <v>67840</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="n">
+      <c r="A6" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="22" t="n">
         <v>410</v>
       </c>
-      <c r="E6" s="21" t="n">
+      <c r="E6" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="24" t="n">
         <f aca="false">D6*E6</f>
         <v>168100</v>
       </c>
-      <c r="G6" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H6" s="24" t="n">
+      <c r="G6" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="26" t="n">
         <v>70000</v>
       </c>
-      <c r="I6" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25" t="n">
+      <c r="I6" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27" t="n">
         <f aca="false">F6-G6-H6-I6-K6-J6</f>
         <v>63100</v>
       </c>
-      <c r="M6" s="26"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="n">
+      <c r="A7" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E7" s="21" t="n">
+      <c r="E7" s="23" t="n">
         <v>340</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="24" t="n">
         <f aca="false">D7*E7</f>
         <v>122400</v>
       </c>
-      <c r="G7" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24" t="n">
+      <c r="G7" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26" t="n">
         <v>97400</v>
       </c>
-      <c r="L7" s="25" t="n">
+      <c r="L7" s="27" t="n">
         <f aca="false">F7-G7-H7-I7-K7-J7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="26"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="n">
+      <c r="A8" s="29" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="22" t="n">
         <v>283</v>
       </c>
-      <c r="E8" s="21" t="n">
+      <c r="E8" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="24" t="n">
         <f aca="false">D8*E8</f>
         <v>127350</v>
       </c>
-      <c r="G8" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H8" s="24" t="n">
+      <c r="G8" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H8" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I8" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25" t="n">
+      <c r="I8" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27" t="n">
         <f aca="false">F8-G8-H8-I8-K8-J8</f>
         <v>37350</v>
       </c>
-      <c r="M8" s="26"/>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="n">
+      <c r="A9" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="22" t="n">
         <v>359</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="24" t="n">
         <f aca="false">D9*E9</f>
         <v>147190</v>
       </c>
-      <c r="G9" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="24" t="n">
+      <c r="G9" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H9" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I9" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25" t="n">
+      <c r="I9" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27" t="n">
         <f aca="false">F9-G9-H9-I9-K9-J9</f>
         <v>52190</v>
       </c>
-      <c r="M9" s="26"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="n">
+      <c r="A10" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20" t="n">
+      <c r="D10" s="22" t="n">
         <v>321</v>
       </c>
-      <c r="E10" s="21" t="n">
+      <c r="E10" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="24" t="n">
         <f aca="false">D10*E10</f>
         <v>144450</v>
       </c>
-      <c r="G10" s="23" t="n">
+      <c r="G10" s="25" t="n">
         <v>12500</v>
       </c>
-      <c r="H10" s="24" t="n">
+      <c r="H10" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I10" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="n">
+      <c r="I10" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26" t="n">
         <v>24900</v>
       </c>
-      <c r="L10" s="25" t="n">
+      <c r="L10" s="27" t="n">
         <f aca="false">F10-G10-H10-I10-K10-J10</f>
         <v>42050</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="n">
+      <c r="A11" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="20" t="n">
+      <c r="D11" s="22" t="n">
         <v>251</v>
       </c>
-      <c r="E11" s="21" t="n">
+      <c r="E11" s="23" t="n">
         <v>460</v>
       </c>
-      <c r="F11" s="22" t="n">
+      <c r="F11" s="24" t="n">
         <f aca="false">D11*E11</f>
         <v>115460</v>
       </c>
-      <c r="G11" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H11" s="24" t="n">
+      <c r="G11" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H11" s="26" t="n">
         <v>20000</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25" t="n">
+      <c r="I11" s="26" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27" t="n">
         <f aca="false">F11-G11-H11-I11-K11-J11</f>
-        <v>70460</v>
-      </c>
-      <c r="M11" s="26"/>
+        <v>62460</v>
+      </c>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="n">
+      <c r="A12" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E12" s="21" t="n">
+      <c r="E12" s="23" t="n">
         <v>340</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="24" t="n">
         <f aca="false">D12*E12</f>
         <v>122400</v>
       </c>
-      <c r="G12" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H12" s="24" t="n">
+      <c r="G12" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H12" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I12" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25" t="n">
+      <c r="I12" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27" t="n">
         <f aca="false">F12-G12-H12-I12-K12-J12</f>
         <v>37400</v>
       </c>
-      <c r="M12" s="26"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="n">
+      <c r="A13" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="n">
+      <c r="D13" s="22" t="n">
         <v>288</v>
       </c>
-      <c r="E13" s="21" t="n">
+      <c r="E13" s="23" t="n">
         <v>430</v>
       </c>
-      <c r="F13" s="22" t="n">
+      <c r="F13" s="24" t="n">
         <f aca="false">D13*E13</f>
         <v>123840</v>
       </c>
-      <c r="G13" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H13" s="24" t="n">
+      <c r="G13" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H13" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25" t="n">
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27" t="n">
         <f aca="false">F13-G13-H13-I13-K13-J13</f>
         <v>58840</v>
       </c>
-      <c r="M13" s="26"/>
+      <c r="M13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="n">
+      <c r="A14" s="29" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="20" t="n">
+      <c r="D14" s="22" t="n">
         <v>298</v>
       </c>
-      <c r="E14" s="21" t="n">
+      <c r="E14" s="23" t="n">
         <v>420</v>
       </c>
-      <c r="F14" s="22" t="n">
+      <c r="F14" s="24" t="n">
         <f aca="false">D14*E14</f>
         <v>125160</v>
       </c>
-      <c r="G14" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H14" s="24" t="n">
+      <c r="G14" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25" t="n">
+      <c r="I14" s="26"/>
+      <c r="J14" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27" t="n">
         <f aca="false">F14-G14-H14-I14-K14-J14</f>
         <v>60160</v>
       </c>
-      <c r="M14" s="26"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="n">
+      <c r="A15" s="29" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="20" t="n">
+      <c r="D15" s="22" t="n">
         <v>341</v>
       </c>
-      <c r="E15" s="21" t="n">
+      <c r="E15" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="F15" s="24" t="n">
         <f aca="false">D15*E15</f>
         <v>170500</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24" t="n">
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25" t="n">
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27" t="n">
         <f aca="false">F15-G15-H15-I15-K15-J15</f>
         <v>130500</v>
       </c>
-      <c r="M15" s="26"/>
+      <c r="M15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="n">
+      <c r="A16" s="19" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>114</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="20" t="n">
+      <c r="D16" s="22" t="n">
         <v>336</v>
       </c>
-      <c r="E16" s="21" t="n">
+      <c r="E16" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="24" t="n">
         <f aca="false">D16*E16</f>
         <v>137760</v>
       </c>
-      <c r="G16" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H16" s="24" t="n">
+      <c r="G16" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H16" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24" t="n">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="n">
         <v>15000</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25" t="n">
+      <c r="K16" s="26"/>
+      <c r="L16" s="27" t="n">
         <f aca="false">F16-G16-H16-I16-K16-J16</f>
         <v>67760</v>
       </c>
-      <c r="M16" s="26"/>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="n">
+      <c r="A17" s="29" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="20" t="n">
+      <c r="D17" s="22" t="n">
         <v>283</v>
       </c>
-      <c r="E17" s="21" t="n">
+      <c r="E17" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="F17" s="22" t="n">
+      <c r="F17" s="24" t="n">
         <f aca="false">D17*E17</f>
         <v>127350</v>
       </c>
-      <c r="G17" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H17" s="24" t="n">
+      <c r="G17" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H17" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25" t="n">
+      <c r="I17" s="26"/>
+      <c r="J17" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27" t="n">
         <f aca="false">F17-G17-H17-I17-K17-J17</f>
         <v>62350</v>
       </c>
-      <c r="M17" s="26"/>
+      <c r="M17" s="28"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="n">
+      <c r="A18" s="29" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>129</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="20" t="n">
+      <c r="D18" s="22" t="n">
         <v>296</v>
       </c>
-      <c r="E18" s="21" t="n">
+      <c r="E18" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="F18" s="22" t="n">
+      <c r="F18" s="24" t="n">
         <f aca="false">D18*E18</f>
         <v>133200</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="n">
+      <c r="G18" s="25"/>
+      <c r="H18" s="26" t="n">
         <v>65000</v>
       </c>
-      <c r="I18" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25" t="n">
+      <c r="I18" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27" t="n">
         <f aca="false">F18-G18-H18-I18-K18-J18</f>
         <v>58200</v>
       </c>
-      <c r="M18" s="26"/>
+      <c r="M18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="n">
+      <c r="A19" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="20" t="n">
+      <c r="D19" s="22" t="n">
         <v>357</v>
       </c>
-      <c r="E19" s="21" t="n">
+      <c r="E19" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="24" t="n">
         <f aca="false">D19*E19</f>
         <v>146370</v>
       </c>
-      <c r="G19" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H19" s="24" t="n">
+      <c r="G19" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H19" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25" t="n">
+      <c r="I19" s="26"/>
+      <c r="J19" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27" t="n">
         <f aca="false">F19-G19-H19-I19-K19-J19</f>
         <v>81370</v>
       </c>
-      <c r="M19" s="26"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="n">
+      <c r="A20" s="29" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="9" t="n">
         <v>135</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="22" t="n">
         <v>288</v>
       </c>
-      <c r="E20" s="21" t="n">
+      <c r="E20" s="23" t="n">
         <v>390</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="24" t="n">
         <f aca="false">D20*E20</f>
         <v>112320</v>
       </c>
-      <c r="G20" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H20" s="24" t="n">
+      <c r="G20" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H20" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25" t="n">
+      <c r="I20" s="26"/>
+      <c r="J20" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27" t="n">
         <f aca="false">F20-G20-H20-I20-K20-J20</f>
         <v>47320</v>
       </c>
-      <c r="M20" s="26"/>
+      <c r="M20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="n">
+      <c r="A21" s="29" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>152</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="20" t="n">
+      <c r="D21" s="22" t="n">
         <v>297</v>
       </c>
-      <c r="E21" s="21" t="n">
+      <c r="E21" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="F21" s="22" t="n">
+      <c r="F21" s="24" t="n">
         <f aca="false">D21*E21</f>
         <v>133650</v>
       </c>
-      <c r="G21" s="23" t="n">
+      <c r="G21" s="25" t="n">
         <v>12500</v>
       </c>
-      <c r="H21" s="24" t="n">
+      <c r="H21" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25" t="n">
+      <c r="I21" s="26"/>
+      <c r="J21" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27" t="n">
         <f aca="false">F21-G21-H21-I21-K21-J21</f>
         <v>81150</v>
       </c>
-      <c r="M21" s="26"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="n">
+      <c r="A22" s="19" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="18" t="n">
+      <c r="B22" s="20" t="n">
         <v>154</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E22" s="21" t="n">
+      <c r="E22" s="23" t="n">
         <v>440</v>
       </c>
-      <c r="F22" s="22" t="n">
+      <c r="F22" s="24" t="n">
         <f aca="false">D22*E22</f>
         <v>158400</v>
       </c>
-      <c r="G22" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H22" s="24" t="n">
+      <c r="G22" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H22" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I22" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25" t="n">
+      <c r="I22" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27" t="n">
         <f aca="false">F22-G22-H22-I22-K22-J22</f>
         <v>68400</v>
       </c>
-      <c r="M22" s="26"/>
+      <c r="M22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="n">
+      <c r="A23" s="29" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="n">
+      <c r="B23" s="20" t="n">
         <v>156</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="22" t="n">
         <v>370</v>
       </c>
-      <c r="E23" s="21" t="n">
+      <c r="E23" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F23" s="22" t="n">
+      <c r="F23" s="24" t="n">
         <f aca="false">D23*E23</f>
         <v>151700</v>
       </c>
-      <c r="G23" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H23" s="24" t="n">
+      <c r="G23" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H23" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I23" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25" t="n">
+      <c r="I23" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27" t="n">
         <f aca="false">F23-G23-H23-I23-K23-J23</f>
         <v>56700</v>
       </c>
-      <c r="M23" s="26"/>
+      <c r="M23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="n">
+      <c r="A24" s="29" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>173</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="20" t="n">
+      <c r="D24" s="22" t="n">
         <v>330</v>
       </c>
-      <c r="E24" s="21" t="n">
+      <c r="E24" s="23" t="n">
         <v>500</v>
       </c>
-      <c r="F24" s="22" t="n">
+      <c r="F24" s="24" t="n">
         <f aca="false">D24*E24</f>
         <v>165000</v>
       </c>
-      <c r="G24" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H24" s="24" t="n">
+      <c r="G24" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H24" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25" t="n">
+      <c r="I24" s="26"/>
+      <c r="J24" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27" t="n">
         <f aca="false">F24-G24-H24-I24-K24-J24</f>
         <v>100000</v>
       </c>
-      <c r="M24" s="26"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="n">
+      <c r="A25" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="18" t="n">
+      <c r="B25" s="20" t="n">
         <v>188</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="20" t="n">
+      <c r="D25" s="22" t="n">
         <v>360</v>
       </c>
-      <c r="E25" s="21" t="n">
+      <c r="E25" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="24" t="n">
         <f aca="false">D25*E25</f>
         <v>126000</v>
       </c>
-      <c r="G25" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H25" s="24" t="n">
+      <c r="G25" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H25" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I25" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25" t="n">
+      <c r="I25" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27" t="n">
         <f aca="false">F25-G25-H25-I25-K25-J25</f>
         <v>41000</v>
       </c>
-      <c r="M25" s="26"/>
+      <c r="M25" s="28"/>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="n">
+      <c r="A26" s="29" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="n">
+      <c r="B26" s="20" t="n">
         <v>194</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="20" t="n">
+      <c r="D26" s="22" t="n">
         <v>309</v>
       </c>
-      <c r="E26" s="21" t="n">
+      <c r="E26" s="23" t="n">
         <v>420</v>
       </c>
-      <c r="F26" s="22" t="n">
+      <c r="F26" s="24" t="n">
         <f aca="false">D26*E26</f>
         <v>129780</v>
       </c>
-      <c r="G26" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24" t="n">
+      <c r="G26" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26" t="n">
         <v>104780</v>
       </c>
-      <c r="L26" s="25" t="n">
+      <c r="L26" s="27" t="n">
         <f aca="false">F26-G26-H26-I26-K26-J26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="26"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="n">
+      <c r="A27" s="29" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="18" t="n">
+      <c r="B27" s="20" t="n">
         <v>206</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="22" t="n">
         <v>261</v>
       </c>
-      <c r="E27" s="21" t="n">
+      <c r="E27" s="23" t="n">
         <v>450</v>
       </c>
-      <c r="F27" s="22" t="n">
+      <c r="F27" s="24" t="n">
         <f aca="false">D27*E27</f>
         <v>117450</v>
       </c>
-      <c r="G27" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24" t="n">
+      <c r="G27" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26" t="n">
         <v>92450</v>
       </c>
-      <c r="L27" s="25" t="n">
+      <c r="L27" s="27" t="n">
         <f aca="false">F27-G27-H27-I27-K27-J27</f>
         <v>0</v>
       </c>
-      <c r="M27" s="26"/>
+      <c r="M27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="n">
+      <c r="A28" s="19" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="18" t="n">
+      <c r="B28" s="20" t="n">
         <v>222</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="22" t="n">
         <v>284</v>
       </c>
-      <c r="E28" s="21" t="n">
+      <c r="E28" s="23" t="n">
         <v>420</v>
       </c>
-      <c r="F28" s="22" t="n">
+      <c r="F28" s="24" t="n">
         <f aca="false">D28*E28</f>
         <v>119280</v>
       </c>
-      <c r="G28" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H28" s="24" t="n">
+      <c r="G28" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H28" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I28" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25" t="n">
+      <c r="I28" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27" t="n">
         <f aca="false">F28-G28-H28-I28-K28-J28</f>
         <v>34280</v>
       </c>
-      <c r="M28" s="26"/>
+      <c r="M28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="n">
+      <c r="A29" s="29" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>229</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="20" t="n">
+      <c r="D29" s="22" t="n">
         <v>345</v>
       </c>
-      <c r="E29" s="21" t="n">
+      <c r="E29" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F29" s="22" t="n">
+      <c r="F29" s="24" t="n">
         <f aca="false">D29*E29</f>
         <v>120750</v>
       </c>
-      <c r="G29" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H29" s="24" t="n">
+      <c r="G29" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H29" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25" t="n">
+      <c r="I29" s="26"/>
+      <c r="J29" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27" t="n">
         <f aca="false">F29-G29-H29-I29-K29-J29</f>
         <v>55750</v>
       </c>
-      <c r="M29" s="26"/>
+      <c r="M29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="n">
+      <c r="A30" s="29" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>231</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="22" t="n">
         <v>349</v>
       </c>
-      <c r="E30" s="21" t="n">
+      <c r="E30" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F30" s="22" t="n">
+      <c r="F30" s="24" t="n">
         <f aca="false">D30*E30</f>
         <v>143090</v>
       </c>
-      <c r="G30" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H30" s="24" t="n">
+      <c r="G30" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H30" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25" t="n">
+      <c r="I30" s="26"/>
+      <c r="J30" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27" t="n">
         <f aca="false">F30-G30-H30-I30-K30-J30</f>
         <v>78090</v>
       </c>
-      <c r="M30" s="26"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="n">
+      <c r="A31" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="9" t="n">
         <v>232</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="20" t="n">
+      <c r="D31" s="22" t="n">
         <v>298</v>
       </c>
-      <c r="E31" s="21" t="n">
+      <c r="E31" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F31" s="22" t="n">
+      <c r="F31" s="24" t="n">
         <f aca="false">D31*E31</f>
         <v>119200</v>
       </c>
-      <c r="G31" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H31" s="24" t="n">
+      <c r="G31" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H31" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I31" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25" t="n">
+      <c r="I31" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27" t="n">
         <f aca="false">F31-G31-H31-I31-K31-J31</f>
         <v>34200</v>
       </c>
-      <c r="M31" s="26"/>
+      <c r="M31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="n">
+      <c r="A32" s="29" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="n">
+      <c r="B32" s="20" t="n">
         <v>234</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="D32" s="22" t="n">
         <v>86</v>
       </c>
-      <c r="E32" s="21" t="n">
+      <c r="E32" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F32" s="22" t="n">
+      <c r="F32" s="24" t="n">
         <f aca="false">D32*E32</f>
         <v>34400</v>
       </c>
-      <c r="G32" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25" t="n">
+      <c r="G32" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27" t="n">
         <f aca="false">F32-G32-H32-I32-K32-J32</f>
         <v>9400</v>
       </c>
-      <c r="M32" s="26"/>
+      <c r="M32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="n">
+      <c r="A33" s="29" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="32" t="n">
+      <c r="B33" s="33" t="n">
         <v>241</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="20" t="n">
+      <c r="D33" s="22" t="n">
         <v>300</v>
       </c>
-      <c r="E33" s="21" t="n">
+      <c r="E33" s="23" t="n">
         <v>420</v>
       </c>
-      <c r="F33" s="22" t="n">
+      <c r="F33" s="24" t="n">
         <f aca="false">D33*E33</f>
         <v>126000</v>
       </c>
-      <c r="G33" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H33" s="24" t="n">
+      <c r="G33" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H33" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25" t="n">
+      <c r="I33" s="26"/>
+      <c r="J33" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27" t="n">
         <f aca="false">F33-G33-H33-I33-K33-J33</f>
         <v>61000</v>
       </c>
-      <c r="M33" s="26"/>
+      <c r="M33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="n">
+      <c r="A34" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="32" t="n">
+      <c r="B34" s="33" t="n">
         <v>242</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="20" t="n">
+      <c r="D34" s="22" t="n">
         <v>341</v>
       </c>
-      <c r="E34" s="21" t="n">
+      <c r="E34" s="23" t="n">
         <v>420</v>
       </c>
-      <c r="F34" s="22" t="n">
+      <c r="F34" s="24" t="n">
         <f aca="false">D34*E34</f>
         <v>143220</v>
       </c>
-      <c r="G34" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H34" s="24" t="n">
+      <c r="G34" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H34" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24" t="n">
+      <c r="I34" s="26"/>
+      <c r="J34" s="26" t="n">
         <v>15000</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25" t="n">
+      <c r="K34" s="26"/>
+      <c r="L34" s="27" t="n">
         <f aca="false">F34-G34-H34-I34-K34-J34</f>
         <v>73220</v>
       </c>
-      <c r="M34" s="26"/>
+      <c r="M34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="n">
+      <c r="A35" s="29" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="32" t="n">
+      <c r="B35" s="33" t="n">
         <v>243</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="20" t="n">
+      <c r="D35" s="22" t="n">
         <v>310</v>
       </c>
-      <c r="E35" s="21" t="n">
+      <c r="E35" s="23" t="n">
         <v>430</v>
       </c>
-      <c r="F35" s="22" t="n">
+      <c r="F35" s="24" t="n">
         <f aca="false">D35*E35</f>
         <v>133300</v>
       </c>
-      <c r="G35" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H35" s="24" t="n">
+      <c r="G35" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H35" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24" t="n">
+      <c r="I35" s="26"/>
+      <c r="J35" s="26" t="n">
         <v>15000</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25" t="n">
+      <c r="K35" s="26"/>
+      <c r="L35" s="27" t="n">
         <f aca="false">F35-G35-H35-I35-K35-J35</f>
         <v>63300</v>
       </c>
-      <c r="M35" s="26"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="n">
+      <c r="A36" s="29" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="18" t="n">
+      <c r="B36" s="20" t="n">
         <v>265</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="20" t="n">
+      <c r="D36" s="22" t="n">
         <v>103</v>
       </c>
-      <c r="E36" s="21" t="n">
+      <c r="E36" s="23" t="n">
         <v>460</v>
       </c>
-      <c r="F36" s="22" t="n">
+      <c r="F36" s="24" t="n">
         <f aca="false">D36*E36</f>
         <v>47380</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24" t="n">
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26" t="n">
         <v>47380</v>
       </c>
-      <c r="L36" s="25" t="n">
+      <c r="L36" s="27" t="n">
         <f aca="false">F36-G36-H36-I36-K36-J36</f>
         <v>0</v>
       </c>
-      <c r="M36" s="26"/>
+      <c r="M36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="n">
+      <c r="A37" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="9" t="n">
         <v>284</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="20" t="n">
+      <c r="D37" s="22" t="n">
         <v>314</v>
       </c>
-      <c r="E37" s="21" t="n">
+      <c r="E37" s="23" t="n">
         <v>420</v>
       </c>
-      <c r="F37" s="22" t="n">
+      <c r="F37" s="24" t="n">
         <f aca="false">D37*E37</f>
         <v>131880</v>
       </c>
-      <c r="G37" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H37" s="24" t="n">
+      <c r="G37" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H37" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25" t="n">
+      <c r="I37" s="26"/>
+      <c r="J37" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27" t="n">
         <f aca="false">F37-G37-H37-I37-K37-J37</f>
         <v>66880</v>
       </c>
-      <c r="M37" s="26"/>
+      <c r="M37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="n">
+      <c r="A38" s="29" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="18" t="n">
+      <c r="B38" s="20" t="n">
         <v>288</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D38" s="22" t="n">
         <v>348</v>
       </c>
-      <c r="E38" s="21" t="n">
+      <c r="E38" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F38" s="22" t="n">
+      <c r="F38" s="24" t="n">
         <f aca="false">D38*E38</f>
         <v>139200</v>
       </c>
-      <c r="G38" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H38" s="24" t="n">
+      <c r="G38" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H38" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I38" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25" t="n">
+      <c r="I38" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="27" t="n">
         <f aca="false">F38-G38-H38-I38-K38-J38</f>
         <v>49200</v>
       </c>
-      <c r="M38" s="26"/>
+      <c r="M38" s="28"/>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="n">
+      <c r="A39" s="29" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="9" t="n">
         <v>291</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="20" t="n">
+      <c r="D39" s="22" t="n">
         <v>304</v>
       </c>
-      <c r="E39" s="21" t="n">
+      <c r="E39" s="23" t="n">
         <v>390</v>
       </c>
-      <c r="F39" s="22" t="n">
+      <c r="F39" s="24" t="n">
         <f aca="false">D39*E39</f>
         <v>118560</v>
       </c>
-      <c r="G39" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H39" s="24" t="n">
+      <c r="G39" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H39" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25" t="n">
+      <c r="I39" s="26"/>
+      <c r="J39" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27" t="n">
         <f aca="false">F39-G39-H39-I39-K39-J39</f>
         <v>53560</v>
       </c>
-      <c r="M39" s="26"/>
+      <c r="M39" s="28"/>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="n">
+      <c r="A40" s="19" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="n">
+      <c r="B40" s="9" t="n">
         <v>294</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="20" t="n">
+      <c r="D40" s="22" t="n">
         <v>340</v>
       </c>
-      <c r="E40" s="21" t="n">
+      <c r="E40" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F40" s="22" t="n">
+      <c r="F40" s="24" t="n">
         <f aca="false">D40*E40</f>
         <v>139400</v>
       </c>
-      <c r="G40" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H40" s="24" t="n">
+      <c r="G40" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H40" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25" t="n">
+      <c r="I40" s="26"/>
+      <c r="J40" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="27" t="n">
         <f aca="false">F40-G40-H40-I40-K40-J40</f>
         <v>74400</v>
       </c>
-      <c r="M40" s="26"/>
+      <c r="M40" s="28"/>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="n">
+      <c r="A41" s="29" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="34" t="n">
+      <c r="B41" s="35" t="n">
         <v>306</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D41" s="20" t="n">
+      <c r="D41" s="22" t="n">
         <v>310</v>
       </c>
-      <c r="E41" s="21" t="n">
+      <c r="E41" s="23" t="n">
         <v>390</v>
       </c>
-      <c r="F41" s="22" t="n">
+      <c r="F41" s="24" t="n">
         <f aca="false">D41*E41</f>
         <v>120900</v>
       </c>
-      <c r="G41" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H41" s="24" t="n">
+      <c r="G41" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H41" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25" t="n">
+      <c r="I41" s="26"/>
+      <c r="J41" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27" t="n">
         <f aca="false">F41-G41-H41-I41-K41-J41</f>
         <v>55900</v>
       </c>
-      <c r="M41" s="26"/>
+      <c r="M41" s="28"/>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="n">
+      <c r="A42" s="29" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="n">
+      <c r="B42" s="9" t="n">
         <v>308</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="D42" s="22" t="n">
         <v>313</v>
       </c>
-      <c r="E42" s="21" t="n">
+      <c r="E42" s="23" t="n">
         <v>370</v>
       </c>
-      <c r="F42" s="22" t="n">
+      <c r="F42" s="24" t="n">
         <f aca="false">D42*E42</f>
         <v>115810</v>
       </c>
-      <c r="G42" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H42" s="24" t="n">
+      <c r="G42" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H42" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25" t="n">
+      <c r="I42" s="26"/>
+      <c r="J42" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27" t="n">
         <f aca="false">F42-G42-H42-I42-K42-J42</f>
         <v>50810</v>
       </c>
-      <c r="M42" s="26"/>
+      <c r="M42" s="28"/>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="n">
+      <c r="A43" s="19" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="18" t="n">
+      <c r="B43" s="20" t="n">
         <v>309</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D43" s="20" t="n">
+      <c r="D43" s="22" t="n">
         <v>390</v>
       </c>
-      <c r="E43" s="21" t="n">
+      <c r="E43" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F43" s="22" t="n">
+      <c r="F43" s="24" t="n">
         <f aca="false">D43*E43</f>
         <v>148200</v>
       </c>
-      <c r="G43" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H43" s="24" t="n">
+      <c r="G43" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H43" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I43" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25" t="n">
+      <c r="I43" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27" t="n">
         <f aca="false">F43-G43-H43-I43-K43-J43</f>
         <v>53200</v>
       </c>
-      <c r="M43" s="26"/>
+      <c r="M43" s="28"/>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="n">
+      <c r="A44" s="29" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="18" t="n">
+      <c r="B44" s="20" t="n">
         <v>314</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="20" t="n">
+      <c r="D44" s="22" t="n">
         <v>380</v>
       </c>
-      <c r="E44" s="21" t="n">
+      <c r="E44" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F44" s="22" t="n">
+      <c r="F44" s="24" t="n">
         <f aca="false">D44*E44</f>
         <v>144400</v>
       </c>
-      <c r="G44" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H44" s="24" t="n">
+      <c r="G44" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H44" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I44" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="25" t="n">
+      <c r="I44" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27" t="n">
         <f aca="false">F44-G44-H44-I44-K44-J44</f>
         <v>49400</v>
       </c>
-      <c r="M44" s="26"/>
+      <c r="M44" s="28"/>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="n">
+      <c r="A45" s="29" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="n">
+      <c r="B45" s="9" t="n">
         <v>321</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="20" t="n">
+      <c r="D45" s="22" t="n">
         <v>346</v>
       </c>
-      <c r="E45" s="21" t="n">
+      <c r="E45" s="23" t="n">
         <v>390</v>
       </c>
-      <c r="F45" s="22" t="n">
+      <c r="F45" s="24" t="n">
         <f aca="false">D45*E45</f>
         <v>134940</v>
       </c>
-      <c r="G45" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H45" s="24" t="n">
+      <c r="G45" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H45" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25" t="n">
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27" t="n">
         <f aca="false">F45-G45-H45-I45-K45-J45</f>
         <v>79940</v>
       </c>
-      <c r="M45" s="26"/>
+      <c r="M45" s="28"/>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="n">
+      <c r="A46" s="19" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="n">
+      <c r="B46" s="9" t="n">
         <v>341</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="20" t="n">
+      <c r="D46" s="22" t="n">
         <v>333</v>
       </c>
-      <c r="E46" s="21" t="n">
+      <c r="E46" s="23" t="n">
         <v>390</v>
       </c>
-      <c r="F46" s="22" t="n">
+      <c r="F46" s="24" t="n">
         <f aca="false">D46*E46</f>
         <v>129870</v>
       </c>
-      <c r="G46" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H46" s="24" t="n">
+      <c r="G46" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H46" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25" t="n">
+      <c r="I46" s="26"/>
+      <c r="J46" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27" t="n">
         <f aca="false">F46-G46-H46-I46-K46-J46</f>
         <v>64870</v>
       </c>
-      <c r="M46" s="26"/>
+      <c r="M46" s="28"/>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="n">
+      <c r="A47" s="29" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="18" t="n">
+      <c r="B47" s="20" t="n">
         <v>346</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="36" t="n">
+      <c r="D47" s="37" t="n">
         <v>369</v>
       </c>
-      <c r="E47" s="21" t="n">
+      <c r="E47" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F47" s="22" t="n">
+      <c r="F47" s="24" t="n">
         <f aca="false">D47*E47</f>
         <v>140220</v>
       </c>
-      <c r="G47" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H47" s="24" t="n">
+      <c r="G47" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H47" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I47" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="25" t="n">
+      <c r="I47" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27" t="n">
         <f aca="false">F47-G47-H47-I47-K47-J47</f>
         <v>50220</v>
       </c>
-      <c r="M47" s="26"/>
+      <c r="M47" s="28"/>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="27" t="n">
+      <c r="A48" s="29" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="18" t="n">
+      <c r="B48" s="20" t="n">
         <v>347</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="36" t="n">
+      <c r="D48" s="37" t="n">
         <v>321</v>
       </c>
-      <c r="E48" s="21" t="n">
+      <c r="E48" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F48" s="22" t="n">
+      <c r="F48" s="24" t="n">
         <f aca="false">D48*E48</f>
         <v>121980</v>
       </c>
-      <c r="G48" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H48" s="24" t="n">
+      <c r="G48" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H48" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I48" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="25" t="n">
+      <c r="I48" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27" t="n">
         <f aca="false">F48-G48-H48-I48-K48-J48</f>
         <v>36980</v>
       </c>
-      <c r="M48" s="26"/>
+      <c r="M48" s="28"/>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="17" t="n">
+      <c r="A49" s="19" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="18" t="n">
+      <c r="B49" s="20" t="n">
         <v>354</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="20" t="n">
+      <c r="D49" s="22" t="n">
         <v>342</v>
       </c>
-      <c r="E49" s="21" t="n">
+      <c r="E49" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F49" s="22" t="n">
+      <c r="F49" s="24" t="n">
         <f aca="false">D49*E49</f>
         <v>136800</v>
       </c>
-      <c r="G49" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H49" s="24" t="n">
+      <c r="G49" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H49" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I49" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="25" t="n">
+      <c r="I49" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27" t="n">
         <f aca="false">F49-G49-H49-I49-K49-J49</f>
         <v>46800</v>
       </c>
-      <c r="M49" s="26"/>
+      <c r="M49" s="28"/>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="n">
+      <c r="A50" s="29" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="8" t="n">
+      <c r="B50" s="9" t="n">
         <v>355</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="20" t="n">
+      <c r="D50" s="22" t="n">
         <v>318</v>
       </c>
-      <c r="E50" s="21" t="n">
+      <c r="E50" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F50" s="22" t="n">
+      <c r="F50" s="24" t="n">
         <f aca="false">D50*E50</f>
         <v>130380</v>
       </c>
-      <c r="G50" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H50" s="24" t="n">
+      <c r="G50" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H50" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I50" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25" t="n">
+      <c r="I50" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27" t="n">
         <f aca="false">F50-G50-H50-I50-K50-J50</f>
         <v>45380</v>
       </c>
-      <c r="M50" s="26"/>
+      <c r="M50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="n">
+      <c r="A51" s="29" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="18" t="n">
+      <c r="B51" s="20" t="n">
         <v>357</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="20" t="n">
+      <c r="D51" s="22" t="n">
         <v>357</v>
       </c>
-      <c r="E51" s="21" t="n">
+      <c r="E51" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F51" s="22" t="n">
+      <c r="F51" s="24" t="n">
         <f aca="false">D51*E51</f>
         <v>142800</v>
       </c>
-      <c r="G51" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H51" s="24" t="n">
+      <c r="G51" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H51" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I51" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25" t="n">
+      <c r="I51" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27" t="n">
         <f aca="false">F51-G51-H51-I51-K51-J51</f>
         <v>47800</v>
       </c>
-      <c r="M51" s="26"/>
+      <c r="M51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="n">
+      <c r="A52" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="18" t="n">
+      <c r="B52" s="20" t="n">
         <v>359</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="20" t="n">
+      <c r="D52" s="22" t="n">
         <v>272</v>
       </c>
-      <c r="E52" s="21" t="n">
+      <c r="E52" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F52" s="22" t="n">
+      <c r="F52" s="24" t="n">
         <f aca="false">D52*E52</f>
         <v>108800</v>
       </c>
-      <c r="G52" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H52" s="24" t="n">
+      <c r="G52" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H52" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25" t="n">
+      <c r="I52" s="26"/>
+      <c r="J52" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27" t="n">
         <f aca="false">F52-G52-H52-I52-K52-J52</f>
         <v>43800</v>
       </c>
-      <c r="M52" s="26"/>
+      <c r="M52" s="28"/>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="n">
+      <c r="A53" s="29" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="n">
+      <c r="B53" s="9" t="n">
         <v>368</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="20" t="n">
+      <c r="D53" s="22" t="n">
         <v>322</v>
       </c>
-      <c r="E53" s="21" t="n">
+      <c r="E53" s="23" t="n">
         <v>390</v>
       </c>
-      <c r="F53" s="22" t="n">
+      <c r="F53" s="24" t="n">
         <f aca="false">D53*E53</f>
         <v>125580</v>
       </c>
-      <c r="G53" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H53" s="24" t="n">
+      <c r="G53" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H53" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K53" s="24"/>
-      <c r="L53" s="25" t="n">
+      <c r="I53" s="26"/>
+      <c r="J53" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27" t="n">
         <f aca="false">F53-G53-H53-I53-K53-J53</f>
         <v>60580</v>
       </c>
-      <c r="M53" s="26"/>
+      <c r="M53" s="28"/>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="n">
+      <c r="A54" s="29" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="18" t="n">
+      <c r="B54" s="20" t="n">
         <v>376</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="20" t="n">
+      <c r="D54" s="22" t="n">
         <v>387</v>
       </c>
-      <c r="E54" s="21" t="n">
+      <c r="E54" s="23" t="n">
         <v>360</v>
       </c>
-      <c r="F54" s="22" t="n">
+      <c r="F54" s="24" t="n">
         <f aca="false">D54*E54</f>
         <v>139320</v>
       </c>
-      <c r="G54" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H54" s="24" t="n">
+      <c r="G54" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H54" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I54" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="25" t="n">
+      <c r="I54" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27" t="n">
         <f aca="false">F54-G54-H54-I54-K54-J54</f>
         <v>44320</v>
       </c>
-      <c r="M54" s="26"/>
+      <c r="M54" s="28"/>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="n">
+      <c r="A55" s="19" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="8" t="n">
+      <c r="B55" s="9" t="n">
         <v>382</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="20" t="n">
+      <c r="D55" s="22" t="n">
         <v>307</v>
       </c>
-      <c r="E55" s="21" t="n">
+      <c r="E55" s="23" t="n">
         <v>400</v>
       </c>
-      <c r="F55" s="22" t="n">
+      <c r="F55" s="24" t="n">
         <f aca="false">D55*E55</f>
         <v>122800</v>
       </c>
-      <c r="G55" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H55" s="24" t="n">
+      <c r="G55" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H55" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I55" s="24" t="n">
+      <c r="I55" s="26" t="n">
         <v>3000</v>
       </c>
-      <c r="J55" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25" t="n">
+      <c r="J55" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27" t="n">
         <f aca="false">F55-G55-H55-I55-K55-J55</f>
         <v>54800</v>
       </c>
-      <c r="M55" s="26"/>
+      <c r="M55" s="28"/>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="n">
+      <c r="A56" s="29" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="18" t="n">
+      <c r="B56" s="20" t="n">
         <v>385</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="20" t="n">
+      <c r="D56" s="22" t="n">
         <v>283</v>
       </c>
-      <c r="E56" s="21" t="n">
+      <c r="E56" s="23" t="n">
         <v>430</v>
       </c>
-      <c r="F56" s="22" t="n">
+      <c r="F56" s="24" t="n">
         <f aca="false">D56*E56</f>
         <v>121690</v>
       </c>
-      <c r="G56" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H56" s="24" t="n">
+      <c r="G56" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H56" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I56" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24" t="n">
+      <c r="I56" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26" t="n">
         <v>24900</v>
       </c>
-      <c r="L56" s="25" t="n">
+      <c r="L56" s="27" t="n">
         <f aca="false">F56-G56-H56-I56-K56-J56</f>
         <v>11790</v>
       </c>
-      <c r="M56" s="26"/>
+      <c r="M56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27" t="n">
+      <c r="A57" s="29" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="18" t="n">
+      <c r="B57" s="20" t="n">
         <v>389</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="20" t="n">
+      <c r="D57" s="22" t="n">
         <v>268</v>
       </c>
-      <c r="E57" s="21" t="n">
+      <c r="E57" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F57" s="22" t="n">
+      <c r="F57" s="24" t="n">
         <f aca="false">D57*E57</f>
         <v>101840</v>
       </c>
-      <c r="G57" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H57" s="24" t="n">
+      <c r="G57" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H57" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I57" s="24" t="n">
+      <c r="I57" s="26" t="n">
         <v>6000</v>
       </c>
-      <c r="J57" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K57" s="24" t="n">
+      <c r="J57" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K57" s="26" t="n">
         <v>24900</v>
       </c>
-      <c r="L57" s="25" t="n">
+      <c r="L57" s="27" t="n">
         <f aca="false">F57-G57-H57-I57-K57-J57</f>
         <v>5940</v>
       </c>
-      <c r="M57" s="26"/>
+      <c r="M57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="n">
+      <c r="A58" s="19" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="8" t="n">
+      <c r="B58" s="9" t="n">
         <v>390</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="D58" s="22" t="n">
         <v>302</v>
       </c>
-      <c r="E58" s="21" t="n">
+      <c r="E58" s="23" t="n">
         <v>410</v>
       </c>
-      <c r="F58" s="22" t="n">
+      <c r="F58" s="24" t="n">
         <f aca="false">D58*E58</f>
         <v>123820</v>
       </c>
-      <c r="G58" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H58" s="24" t="n">
+      <c r="G58" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H58" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I58" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="25" t="n">
+      <c r="I58" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27" t="n">
         <f aca="false">F58-G58-H58-I58-K58-J58</f>
         <v>38820</v>
       </c>
-      <c r="M58" s="26"/>
+      <c r="M58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27" t="n">
+      <c r="A59" s="29" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="18" t="n">
+      <c r="B59" s="20" t="n">
         <v>392</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="20" t="n">
+      <c r="D59" s="22" t="n">
         <v>336</v>
       </c>
-      <c r="E59" s="21" t="n">
+      <c r="E59" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F59" s="22" t="n">
+      <c r="F59" s="24" t="n">
         <f aca="false">D59*E59</f>
         <v>127680</v>
       </c>
-      <c r="G59" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H59" s="24" t="n">
+      <c r="G59" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H59" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I59" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="25" t="n">
+      <c r="I59" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27" t="n">
         <f aca="false">F59-G59-H59-I59-K59-J59</f>
         <v>42680</v>
       </c>
-      <c r="M59" s="26"/>
+      <c r="M59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="n">
+      <c r="A60" s="29" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="18" t="n">
+      <c r="B60" s="20" t="n">
         <v>396</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="D60" s="22" t="n">
         <v>401</v>
       </c>
-      <c r="E60" s="21" t="n">
+      <c r="E60" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F60" s="22" t="n">
+      <c r="F60" s="24" t="n">
         <f aca="false">D60*E60</f>
         <v>140350</v>
       </c>
-      <c r="G60" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H60" s="24" t="n">
+      <c r="G60" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H60" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I60" s="24" t="n">
+      <c r="I60" s="26" t="n">
         <v>5000</v>
       </c>
-      <c r="J60" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K60" s="24" t="n">
+      <c r="J60" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K60" s="26" t="n">
         <v>24900</v>
       </c>
-      <c r="L60" s="25" t="n">
+      <c r="L60" s="27" t="n">
         <f aca="false">F60-G60-H60-I60-K60-J60</f>
         <v>20450</v>
       </c>
-      <c r="M60" s="26"/>
+      <c r="M60" s="28"/>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="n">
+      <c r="A61" s="19" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="18" t="n">
+      <c r="B61" s="20" t="n">
         <v>397</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="D61" s="20" t="n">
+      <c r="D61" s="22" t="n">
         <v>332</v>
       </c>
-      <c r="E61" s="21" t="n">
+      <c r="E61" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F61" s="22" t="n">
+      <c r="F61" s="24" t="n">
         <f aca="false">D61*E61</f>
         <v>126160</v>
       </c>
-      <c r="G61" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H61" s="24" t="n">
+      <c r="G61" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H61" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="25" t="n">
+      <c r="I61" s="26"/>
+      <c r="J61" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27" t="n">
         <f aca="false">F61-G61-H61-I61-K61-J61</f>
         <v>61160</v>
       </c>
-      <c r="M61" s="26"/>
+      <c r="M61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27" t="n">
+      <c r="A62" s="29" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="18" t="n">
+      <c r="B62" s="20" t="n">
         <v>402</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D62" s="20" t="n">
+      <c r="D62" s="22" t="n">
         <v>389</v>
       </c>
-      <c r="E62" s="21" t="n">
+      <c r="E62" s="23" t="n">
         <v>370</v>
       </c>
-      <c r="F62" s="22" t="n">
+      <c r="F62" s="24" t="n">
         <f aca="false">D62*E62</f>
         <v>143930</v>
       </c>
-      <c r="G62" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24" t="n">
+      <c r="G62" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26" t="n">
         <v>118930</v>
       </c>
-      <c r="L62" s="25" t="n">
+      <c r="L62" s="27" t="n">
         <f aca="false">F62-G62-H62-I62-K62-J62</f>
         <v>0</v>
       </c>
-      <c r="M62" s="26"/>
+      <c r="M62" s="28"/>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="27" t="n">
+      <c r="A63" s="29" t="n">
         <v>61</v>
       </c>
-      <c r="B63" s="18" t="n">
+      <c r="B63" s="20" t="n">
         <v>406</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="20" t="n">
+      <c r="D63" s="22" t="n">
         <v>321</v>
       </c>
-      <c r="E63" s="21" t="n">
+      <c r="E63" s="23" t="n">
         <v>330</v>
       </c>
-      <c r="F63" s="22" t="n">
+      <c r="F63" s="24" t="n">
         <f aca="false">D63*E63</f>
         <v>105930</v>
       </c>
-      <c r="G63" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H63" s="24" t="n">
+      <c r="G63" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H63" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I63" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="25" t="n">
+      <c r="I63" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27" t="n">
         <f aca="false">F63-G63-H63-I63-K63-J63</f>
         <v>20930</v>
       </c>
-      <c r="M63" s="26"/>
+      <c r="M63" s="28"/>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17" t="n">
+      <c r="A64" s="19" t="n">
         <v>62</v>
       </c>
-      <c r="B64" s="18" t="n">
+      <c r="B64" s="20" t="n">
         <v>410</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="20" t="n">
+      <c r="D64" s="22" t="n">
         <v>405</v>
       </c>
-      <c r="E64" s="21" t="n">
+      <c r="E64" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F64" s="22" t="n">
+      <c r="F64" s="24" t="n">
         <f aca="false">D64*E64</f>
         <v>141750</v>
       </c>
-      <c r="G64" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24" t="n">
+      <c r="G64" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26" t="n">
         <v>116750</v>
       </c>
-      <c r="L64" s="25" t="n">
+      <c r="L64" s="27" t="n">
         <f aca="false">F64-G64-H64-I64-K64-J64</f>
         <v>0</v>
       </c>
-      <c r="M64" s="26"/>
+      <c r="M64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27" t="n">
+      <c r="A65" s="29" t="n">
         <v>63</v>
       </c>
-      <c r="B65" s="18" t="n">
+      <c r="B65" s="20" t="n">
         <v>411</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="C65" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D65" s="20" t="n">
+      <c r="D65" s="22" t="n">
         <v>307</v>
       </c>
-      <c r="E65" s="21" t="n">
+      <c r="E65" s="23" t="n">
         <v>370</v>
       </c>
-      <c r="F65" s="22" t="n">
+      <c r="F65" s="24" t="n">
         <f aca="false">D65*E65</f>
         <v>113590</v>
       </c>
-      <c r="G65" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24" t="n">
+      <c r="G65" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26" t="n">
         <v>88590</v>
       </c>
-      <c r="L65" s="25" t="n">
+      <c r="L65" s="27" t="n">
         <f aca="false">F65-G65-H65-I65-K65-J65</f>
         <v>0</v>
       </c>
-      <c r="M65" s="26"/>
+      <c r="M65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27" t="n">
+      <c r="A66" s="29" t="n">
         <v>64</v>
       </c>
-      <c r="B66" s="18" t="n">
+      <c r="B66" s="20" t="n">
         <v>415</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="20" t="n">
+      <c r="D66" s="22" t="n">
         <v>390</v>
       </c>
-      <c r="E66" s="21" t="n">
+      <c r="E66" s="23" t="n">
         <v>370</v>
       </c>
-      <c r="F66" s="22" t="n">
+      <c r="F66" s="24" t="n">
         <f aca="false">D66*E66</f>
         <v>144300</v>
       </c>
-      <c r="G66" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H66" s="24" t="n">
+      <c r="G66" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H66" s="26" t="n">
         <v>60000</v>
       </c>
-      <c r="I66" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="25" t="n">
+      <c r="I66" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27" t="n">
         <f aca="false">F66-G66-H66-I66-K66-J66</f>
         <v>49300</v>
       </c>
-      <c r="M66" s="26"/>
+      <c r="M66" s="28"/>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="17" t="n">
+      <c r="A67" s="19" t="n">
         <v>65</v>
       </c>
-      <c r="B67" s="18" t="n">
+      <c r="B67" s="20" t="n">
         <v>416</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D67" s="20" t="n">
+      <c r="D67" s="22" t="n">
         <v>369</v>
       </c>
-      <c r="E67" s="21" t="n">
+      <c r="E67" s="23" t="n">
         <v>360</v>
       </c>
-      <c r="F67" s="22" t="n">
+      <c r="F67" s="24" t="n">
         <f aca="false">D67*E67</f>
         <v>132840</v>
       </c>
-      <c r="G67" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H67" s="24" t="n">
+      <c r="G67" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H67" s="26" t="n">
         <v>55000</v>
       </c>
-      <c r="I67" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="25" t="n">
+      <c r="I67" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27" t="n">
         <f aca="false">F67-G67-H67-I67-K67-J67</f>
         <v>42840</v>
       </c>
-      <c r="M67" s="26"/>
+      <c r="M67" s="28"/>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="27" t="n">
+      <c r="A68" s="29" t="n">
         <v>66</v>
       </c>
-      <c r="B68" s="18" t="n">
+      <c r="B68" s="20" t="n">
         <v>422</v>
       </c>
-      <c r="C68" s="30" t="s">
+      <c r="C68" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="D68" s="20" t="n">
+      <c r="D68" s="22" t="n">
         <v>316</v>
       </c>
-      <c r="E68" s="21" t="n">
+      <c r="E68" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F68" s="22" t="n">
+      <c r="F68" s="24" t="n">
         <f aca="false">D68*E68</f>
         <v>110600</v>
       </c>
-      <c r="G68" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H68" s="24" t="n">
+      <c r="G68" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H68" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I68" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="25" t="n">
+      <c r="I68" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27" t="n">
         <f aca="false">F68-G68-H68-I68-K68-J68</f>
         <v>25600</v>
       </c>
-      <c r="M68" s="26"/>
+      <c r="M68" s="28"/>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="27" t="n">
+      <c r="A69" s="29" t="n">
         <v>67</v>
       </c>
-      <c r="B69" s="18" t="n">
+      <c r="B69" s="20" t="n">
         <v>424</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D69" s="20" t="n">
+      <c r="D69" s="22" t="n">
         <v>326</v>
       </c>
-      <c r="E69" s="21" t="n">
+      <c r="E69" s="23" t="n">
         <v>380</v>
       </c>
-      <c r="F69" s="22" t="n">
+      <c r="F69" s="24" t="n">
         <f aca="false">D69*E69</f>
         <v>123880</v>
       </c>
-      <c r="G69" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H69" s="24" t="n">
+      <c r="G69" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H69" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K69" s="24"/>
-      <c r="L69" s="25" t="n">
+      <c r="I69" s="26"/>
+      <c r="J69" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27" t="n">
         <f aca="false">F69-G69-H69-I69-K69-J69</f>
         <v>58880</v>
       </c>
-      <c r="M69" s="26"/>
+      <c r="M69" s="28"/>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="17" t="n">
+      <c r="A70" s="19" t="n">
         <v>68</v>
       </c>
-      <c r="B70" s="18" t="n">
+      <c r="B70" s="20" t="n">
         <v>426</v>
       </c>
-      <c r="C70" s="30" t="s">
+      <c r="C70" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="20" t="n">
+      <c r="D70" s="22" t="n">
         <v>311</v>
       </c>
-      <c r="E70" s="21" t="n">
+      <c r="E70" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F70" s="22" t="n">
+      <c r="F70" s="24" t="n">
         <f aca="false">D70*E70</f>
         <v>108850</v>
       </c>
-      <c r="G70" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H70" s="24" t="n">
+      <c r="G70" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H70" s="26" t="n">
         <v>50000</v>
       </c>
-      <c r="I70" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="25" t="n">
+      <c r="I70" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27" t="n">
         <f aca="false">F70-G70-H70-I70-K70-J70</f>
         <v>23850</v>
       </c>
-      <c r="M70" s="26"/>
+      <c r="M70" s="28"/>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="27" t="n">
+      <c r="A71" s="29" t="n">
         <v>69</v>
       </c>
-      <c r="B71" s="18" t="n">
+      <c r="B71" s="20" t="n">
         <v>434</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D71" s="20" t="n">
+      <c r="D71" s="22" t="n">
         <v>331</v>
       </c>
-      <c r="E71" s="21" t="n">
+      <c r="E71" s="23" t="n">
         <v>350</v>
       </c>
-      <c r="F71" s="22" t="n">
+      <c r="F71" s="24" t="n">
         <f aca="false">D71*E71</f>
         <v>115850</v>
       </c>
-      <c r="G71" s="23" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H71" s="24" t="n">
+      <c r="G71" s="25" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H71" s="26" t="n">
         <v>30000</v>
       </c>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K71" s="24"/>
-      <c r="L71" s="25" t="n">
+      <c r="I71" s="26"/>
+      <c r="J71" s="26" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27" t="n">
         <f aca="false">F71-G71-H71-I71-K71-J71</f>
         <v>50850</v>
       </c>
-      <c r="M71" s="26"/>
+      <c r="M71" s="28"/>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="38" t="n">
+      <c r="A72" s="39" t="n">
         <v>70</v>
       </c>
-      <c r="B72" s="39" t="n">
+      <c r="B72" s="40" t="n">
         <v>437</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="41" t="n">
+      <c r="D72" s="42" t="n">
         <v>314</v>
       </c>
-      <c r="E72" s="42" t="n">
+      <c r="E72" s="43" t="n">
         <v>400</v>
       </c>
-      <c r="F72" s="43" t="n">
+      <c r="F72" s="44" t="n">
         <f aca="false">D72*E72</f>
         <v>125600</v>
       </c>
-      <c r="G72" s="44" t="n">
-        <v>25000</v>
-      </c>
-      <c r="H72" s="45" t="n">
+      <c r="G72" s="45" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H72" s="46" t="n">
         <v>30000</v>
       </c>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K72" s="45"/>
-      <c r="L72" s="46" t="n">
+      <c r="I72" s="46"/>
+      <c r="J72" s="46" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K72" s="46"/>
+      <c r="L72" s="47" t="n">
         <f aca="false">F72-G72-H72-I72-K72-J72</f>
         <v>60600</v>
       </c>
-      <c r="M72" s="39"/>
+      <c r="M72" s="40"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <f aca="false">SUM(D3:D73)</f>
         <v>22291</v>
       </c>
-      <c r="L74" s="47" t="n">
+      <c r="L74" s="48" t="n">
         <f aca="false">SUM(L3:L73)</f>
-        <v>3478430</v>
+        <v>3470430</v>
       </c>
     </row>
   </sheetData>

--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
@@ -1042,9 +1042,9 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="K62" activeCellId="0" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2606,11 +2606,13 @@
       <c r="I43" s="26" t="n">
         <v>10000</v>
       </c>
-      <c r="J43" s="26"/>
+      <c r="J43" s="26" t="n">
+        <v>2500</v>
+      </c>
       <c r="K43" s="26"/>
       <c r="L43" s="27" t="n">
         <f aca="false">F43-G43-H43-I43-K43-J43</f>
-        <v>53200</v>
+        <v>50700</v>
       </c>
       <c r="M43" s="28"/>
     </row>
@@ -3283,10 +3285,12 @@
       <c r="J61" s="26" t="n">
         <v>10000</v>
       </c>
-      <c r="K61" s="26"/>
+      <c r="K61" s="26" t="n">
+        <v>61160</v>
+      </c>
       <c r="L61" s="27" t="n">
         <f aca="false">F61-G61-H61-I61-K61-J61</f>
-        <v>61160</v>
+        <v>0</v>
       </c>
       <c r="M61" s="28"/>
     </row>
@@ -3698,7 +3702,7 @@
       </c>
       <c r="L74" s="48" t="n">
         <f aca="false">SUM(L3:L73)</f>
-        <v>3470430</v>
+        <v>3406770</v>
       </c>
     </row>
   </sheetData>

--- a/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
+++ b/Ofis Dosyalari/HAKEDISLER/2025/HAZIRAN 2025/2025 HAZIRAN AYI.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samil\OneDrive\Desktop\OfisDosyalariYedegi\Ofis Dosyalari\HAKEDISLER\2025\HAZIRAN 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4B2EAA-5838-42DC-9A50-F9F29340AC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACEFFB6-8D66-4B33-B205-815B9BFB63FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -363,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot; ₽&quot;_-;\-* #,##0.00&quot; ₽&quot;_-;_-* \-??&quot; ₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,12 +419,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1134,8 +1128,8 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N65" sqref="N65"/>
+      <pane ySplit="2" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="15" customHeight="1"/>
@@ -2151,10 +2145,7 @@
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
-      <c r="L28" s="24">
-        <f t="shared" si="0"/>
-        <v>34280</v>
-      </c>
+      <c r="L28" s="24"/>
       <c r="M28" s="17"/>
     </row>
     <row r="29" spans="1:13" ht="16.5" customHeight="1">
@@ -3298,10 +3289,7 @@
       </c>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
-      <c r="L59" s="24">
-        <f t="shared" si="2"/>
-        <v>42680</v>
-      </c>
+      <c r="L59" s="24"/>
       <c r="M59" s="17"/>
     </row>
     <row r="60" spans="1:13" ht="16.5" customHeight="1">
@@ -3792,7 +3780,7 @@
       </c>
       <c r="L74" s="44">
         <f>SUM(L3:L73)</f>
-        <v>3455870</v>
+        <v>3378910</v>
       </c>
     </row>
   </sheetData>
